--- a/Peaks-dataset-article/redes-ensemble/Teste04/content/results/metrics_12_8.xlsx
+++ b/Peaks-dataset-article/redes-ensemble/Teste04/content/results/metrics_12_8.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_12_8_24</t>
+          <t>model_12_8_4</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9921126742522961</v>
+        <v>0.9881611179031502</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8510345972452046</v>
+        <v>0.7340065218780275</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8395579542436699</v>
+        <v>0.9005913699038813</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9368574194233712</v>
+        <v>0.7364191863382645</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9206926938596042</v>
+        <v>0.8916034322400976</v>
       </c>
       <c r="G2" t="n">
-        <v>0.05274258359269147</v>
+        <v>0.07916665909467406</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9961323341439261</v>
+        <v>1.778699612988977</v>
       </c>
       <c r="I2" t="n">
-        <v>0.1442648319892458</v>
+        <v>0.3257807396798799</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1844792434339672</v>
+        <v>0.06035398324771708</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1643720377116065</v>
+        <v>0.1930674219193113</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2595585196690884</v>
+        <v>0.3258353028562794</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2296575354581066</v>
+        <v>0.2813657034797846</v>
       </c>
       <c r="N2" t="n">
-        <v>1.001514366543559</v>
+        <v>1.011365326812976</v>
       </c>
       <c r="O2" t="n">
-        <v>0.2394345321991948</v>
+        <v>0.2933440239842196</v>
       </c>
       <c r="P2" t="n">
-        <v>303.8846642238192</v>
+        <v>103.0724000796436</v>
       </c>
       <c r="Q2" t="n">
-        <v>485.4971621291811</v>
+        <v>162.7973154981854</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_12_8_23</t>
+          <t>model_12_8_5</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9921766367065508</v>
+        <v>0.9879279351348806</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8510078055873199</v>
+        <v>0.7339918913837419</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8398342514241366</v>
+        <v>0.8957151356799744</v>
       </c>
       <c r="E3" t="n">
-        <v>0.937759395108221</v>
+        <v>0.717362372977069</v>
       </c>
       <c r="F3" t="n">
-        <v>0.921388361722112</v>
+        <v>0.8858924507658344</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05231486636657094</v>
+        <v>0.08072595333980102</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9963114900835648</v>
+        <v>1.778797447171633</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1440163935818992</v>
+        <v>0.3417610744936758</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1818440044174844</v>
+        <v>0.06471755804050346</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1629301989996918</v>
+        <v>0.2032393719418175</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2584189766403625</v>
+        <v>0.3311355496744061</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2287244332522674</v>
+        <v>0.2841231305962276</v>
       </c>
       <c r="N3" t="n">
-        <v>1.001502085752342</v>
+        <v>1.011589182270515</v>
       </c>
       <c r="O3" t="n">
-        <v>0.2384617059006653</v>
+        <v>0.2962188404816707</v>
       </c>
       <c r="P3" t="n">
-        <v>303.9009493931045</v>
+        <v>103.0333903053713</v>
       </c>
       <c r="Q3" t="n">
-        <v>485.5134472984664</v>
+        <v>162.7583057239131</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_12_8_22</t>
+          <t>model_12_8_3</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9922463488375188</v>
+        <v>0.9883766827583723</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8509765995855284</v>
+        <v>0.7339752225877543</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8401331306252739</v>
+        <v>0.9056063641460674</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9387534431128762</v>
+        <v>0.7552745869298455</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9221538310124184</v>
+        <v>0.8974292395106065</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0518487010257927</v>
+        <v>0.07772517591521867</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9965201647612351</v>
+        <v>1.778908911487155</v>
       </c>
       <c r="I4" t="n">
-        <v>0.1437476500768292</v>
+        <v>0.3093456622411304</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1789397641700768</v>
+        <v>0.05603652737669261</v>
       </c>
       <c r="K4" t="n">
-        <v>0.161343690099357</v>
+        <v>0.1826909532399034</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2571565502008431</v>
+        <v>0.3201908859764082</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2277030984106116</v>
+        <v>0.278792352684249</v>
       </c>
       <c r="N4" t="n">
-        <v>1.001488701023196</v>
+        <v>1.011158384551962</v>
       </c>
       <c r="O4" t="n">
-        <v>0.2373968907203456</v>
+        <v>0.2906611203177475</v>
       </c>
       <c r="P4" t="n">
-        <v>303.9188507943211</v>
+        <v>103.1091521194739</v>
       </c>
       <c r="Q4" t="n">
-        <v>485.531348699683</v>
+        <v>162.8340675380158</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_12_8_21</t>
+          <t>model_12_8_6</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.992322035077541</v>
+        <v>0.9876814860947658</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8509401084905375</v>
+        <v>0.7339384260677697</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8404548426139983</v>
+        <v>0.8909908151155838</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9398469620207801</v>
+        <v>0.6982268881341058</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9229943421892424</v>
+        <v>0.8803160564925596</v>
       </c>
       <c r="G5" t="n">
-        <v>0.05134258679026069</v>
+        <v>0.0823739592058417</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9967641808814658</v>
+        <v>1.779154969985723</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1434583759917011</v>
+        <v>0.3572435597312641</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1757449067700688</v>
+        <v>0.06909914680489387</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1596016496546928</v>
+        <v>0.2131716058510267</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2557522365959004</v>
+        <v>0.3361066994515998</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2265890261911655</v>
+        <v>0.2870086396013919</v>
       </c>
       <c r="N5" t="n">
-        <v>1.001474169265112</v>
+        <v>1.011825773349025</v>
       </c>
       <c r="O5" t="n">
-        <v>0.2362353901400702</v>
+        <v>0.299227191579012</v>
       </c>
       <c r="P5" t="n">
-        <v>303.9384694386679</v>
+        <v>102.9929718421395</v>
       </c>
       <c r="Q5" t="n">
-        <v>485.5509673440297</v>
+        <v>162.7178872606813</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_12_8_20</t>
+          <t>model_12_8_2</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9924040463000799</v>
+        <v>0.9885695588947614</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8508973944912305</v>
+        <v>0.7338900127366395</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8407997358045763</v>
+        <v>0.9107436391232965</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9410494254617788</v>
+        <v>0.7737860151752003</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9239166672349748</v>
+        <v>0.9033451401112813</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05079417736751582</v>
+        <v>0.07643541230307206</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9970498095915112</v>
+        <v>1.779478710153914</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1431482580425162</v>
+        <v>0.2925098478817295</v>
       </c>
       <c r="J6" t="n">
-        <v>0.172231753778432</v>
+        <v>0.05179783331284751</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1576900420793315</v>
+        <v>0.1721540174225898</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2541893462226563</v>
+        <v>0.314164812411875</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2253756361444507</v>
+        <v>0.276469550408489</v>
       </c>
       <c r="N6" t="n">
-        <v>1.001458423110385</v>
+        <v>1.010973223461029</v>
       </c>
       <c r="O6" t="n">
-        <v>0.2349703435670031</v>
+        <v>0.288239431540245</v>
       </c>
       <c r="P6" t="n">
-        <v>303.9599470994332</v>
+        <v>103.1426183567555</v>
       </c>
       <c r="Q6" t="n">
-        <v>485.5724450047951</v>
+        <v>162.8675337752974</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_12_8_19</t>
+          <t>model_12_8_7</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9924925134136765</v>
+        <v>0.9874254256283643</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8508472011972295</v>
+        <v>0.7338522675362227</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8411657702611187</v>
+        <v>0.8864258713437649</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9423695425969734</v>
+        <v>0.6791236385088614</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9249265556580919</v>
+        <v>0.874888588745772</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0502025973715427</v>
+        <v>0.08408623672371844</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9973854523796153</v>
+        <v>1.779731112482902</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1428191304804334</v>
+        <v>0.3722037373048032</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1683748602507853</v>
+        <v>0.07347335444103312</v>
       </c>
       <c r="K7" t="n">
-        <v>0.155596950962666</v>
+        <v>0.2228385835706856</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2524520612301174</v>
+        <v>0.3407748082758381</v>
       </c>
       <c r="M7" t="n">
-        <v>0.224059361267372</v>
+        <v>0.2899762692423614</v>
       </c>
       <c r="N7" t="n">
-        <v>1.001441437424574</v>
+        <v>1.01207159139677</v>
       </c>
       <c r="O7" t="n">
-        <v>0.2335980321433425</v>
+        <v>0.3023211593576376</v>
       </c>
       <c r="P7" t="n">
-        <v>303.9833770263079</v>
+        <v>102.9518247581946</v>
       </c>
       <c r="Q7" t="n">
-        <v>485.5958749316698</v>
+        <v>162.6767401767364</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_12_8_18</t>
+          <t>model_12_8_1</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9925876315656459</v>
+        <v>0.9887338153072466</v>
       </c>
       <c r="C8" t="n">
-        <v>0.850788099924258</v>
+        <v>0.7337417266663613</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8415549310491814</v>
+        <v>0.9159806282229233</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9438168936806287</v>
+        <v>0.7917824818151554</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9260310882980629</v>
+        <v>0.9093199698031696</v>
       </c>
       <c r="G8" t="n">
-        <v>0.04956654185134415</v>
+        <v>0.07533702891645243</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9977806628641117</v>
+        <v>1.780470299788659</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1424692083921054</v>
+        <v>0.2753472516270354</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1641462362310236</v>
+        <v>0.04767705368925979</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1533077005822583</v>
+        <v>0.161512121753209</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2505219388922248</v>
+        <v>0.3077247865075725</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2226354460802326</v>
+        <v>0.2744759168241404</v>
       </c>
       <c r="N8" t="n">
-        <v>1.001423174739396</v>
+        <v>1.010815537305043</v>
       </c>
       <c r="O8" t="n">
-        <v>0.2321134979387758</v>
+        <v>0.2861609248468201</v>
       </c>
       <c r="P8" t="n">
-        <v>304.0088784646351</v>
+        <v>103.1715670263362</v>
       </c>
       <c r="Q8" t="n">
-        <v>485.621376369997</v>
+        <v>162.896482444878</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_12_8_17</t>
+          <t>model_12_8_8</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9926893394193665</v>
+        <v>0.9871628374615999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8507183375730969</v>
+        <v>0.7337388407140002</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8419633141323835</v>
+        <v>0.8820268564883036</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9454010099339698</v>
+        <v>0.6601358596893334</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9272361732691291</v>
+        <v>0.8696209311645215</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04888642096519297</v>
+        <v>0.0858421650039794</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9982471640275516</v>
+        <v>1.780489598165386</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1421020021737625</v>
+        <v>0.3866201346748233</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1595180350194314</v>
+        <v>0.07782112190128476</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1508100458017627</v>
+        <v>0.2322209200208435</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2483729961715649</v>
+        <v>0.3451542494251622</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2211027384841558</v>
+        <v>0.2929883359520979</v>
       </c>
       <c r="N9" t="n">
-        <v>1.001403646831482</v>
+        <v>1.012323676036864</v>
       </c>
       <c r="O9" t="n">
-        <v>0.2305155398071919</v>
+        <v>0.3054614559830454</v>
       </c>
       <c r="P9" t="n">
-        <v>304.0365112218753</v>
+        <v>102.9104899191787</v>
       </c>
       <c r="Q9" t="n">
-        <v>485.6490091272372</v>
+        <v>162.6354053377206</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_12_8_16</t>
+          <t>model_12_8_9</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9927974651473176</v>
+        <v>0.9868963266633927</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8506357609634044</v>
+        <v>0.7336029433685887</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8423874208572931</v>
+        <v>0.8777960597210641</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9471318801396558</v>
+        <v>0.6413383346624426</v>
       </c>
       <c r="F10" t="n">
-        <v>0.928548155650968</v>
+        <v>0.8645206319306774</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04816338372451061</v>
+        <v>0.08762432393876135</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9987993541967959</v>
+        <v>1.781398344339904</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1417206577130496</v>
+        <v>0.4004852497954503</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1544610730911833</v>
+        <v>0.08212532559050881</v>
       </c>
       <c r="K10" t="n">
-        <v>0.148090835831841</v>
+        <v>0.2413051709749552</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2459758961020427</v>
+        <v>0.349272767547507</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2194615768751118</v>
+        <v>0.2960140603734244</v>
       </c>
       <c r="N10" t="n">
-        <v>1.001382886691715</v>
+        <v>1.012579526403143</v>
       </c>
       <c r="O10" t="n">
-        <v>0.228804510550778</v>
+        <v>0.3086159917571007</v>
       </c>
       <c r="P10" t="n">
-        <v>304.0663124407785</v>
+        <v>102.8693932980986</v>
       </c>
       <c r="Q10" t="n">
-        <v>485.6788103461404</v>
+        <v>162.5943087166405</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_12_8_15</t>
+          <t>model_12_8_0</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9929115715541572</v>
+        <v>0.9888624786155069</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8505377924146876</v>
+        <v>0.7335200231954644</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8428222226735089</v>
+        <v>0.9212889396614412</v>
       </c>
       <c r="E11" t="n">
-        <v>0.94901881517024</v>
+        <v>0.8090664203641404</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9299724209119066</v>
+        <v>0.9153144598541267</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04740035365656267</v>
+        <v>0.07447665678167542</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9994544703331686</v>
+        <v>1.781952831919398</v>
       </c>
       <c r="I11" t="n">
-        <v>0.1413296965365744</v>
+        <v>0.2579509186806966</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1489481475238036</v>
+        <v>0.04371942671653657</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1451389087701921</v>
+        <v>0.1508352086020221</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2433213545268829</v>
+        <v>0.3008460334612506</v>
       </c>
       <c r="M11" t="n">
-        <v>0.217716222768453</v>
+        <v>0.2729041164615796</v>
       </c>
       <c r="N11" t="n">
-        <v>1.001360978261602</v>
+        <v>1.010692020529113</v>
       </c>
       <c r="O11" t="n">
-        <v>0.2269848531064177</v>
+        <v>0.2845222096887499</v>
       </c>
       <c r="P11" t="n">
-        <v>304.0982511784001</v>
+        <v>103.1945390689698</v>
       </c>
       <c r="Q11" t="n">
-        <v>485.7107490837619</v>
+        <v>162.9194544875116</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_12_8_14</t>
+          <t>model_12_8_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9930309382080837</v>
+        <v>0.9866280980331643</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8504212700906959</v>
+        <v>0.7334486476617548</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8432606019394355</v>
+        <v>0.8737348536317567</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9510709323338826</v>
+        <v>0.6228005504179766</v>
       </c>
       <c r="F12" t="n">
-        <v>0.931513887929091</v>
+        <v>0.859592758867867</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0466021482921227</v>
+        <v>0.08941797002417745</v>
       </c>
       <c r="H12" t="n">
-        <v>1.000233655650237</v>
+        <v>1.782430120441968</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1409355186211263</v>
+        <v>0.4137945844325709</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1429526209183109</v>
+        <v>0.08637005457588987</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1419440697697186</v>
+        <v>0.2500823100250569</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2403578269681732</v>
+        <v>0.3531414105692582</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2158753072774251</v>
+        <v>0.2990283766203091</v>
       </c>
       <c r="N12" t="n">
-        <v>1.001338059864048</v>
+        <v>1.012837025888162</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2250655660317163</v>
+        <v>0.3117586336871102</v>
       </c>
       <c r="P12" t="n">
-        <v>304.1322172764476</v>
+        <v>102.82886722004</v>
       </c>
       <c r="Q12" t="n">
-        <v>485.7447151818095</v>
+        <v>162.5537826385819</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_12_8_13</t>
+          <t>model_12_8_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9931544096967742</v>
+        <v>0.9863599367827501</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8502823146758972</v>
+        <v>0.7332795776871465</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8436914753689981</v>
+        <v>0.8698422014081491</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9532964756637049</v>
+        <v>0.604565551745903</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9331759653490576</v>
+        <v>0.8548392411336321</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04577649387871593</v>
+        <v>0.09121116554046592</v>
       </c>
       <c r="H13" t="n">
-        <v>1.001162851148827</v>
+        <v>1.783560692140669</v>
       </c>
       <c r="I13" t="n">
-        <v>0.1405480897359394</v>
+        <v>0.426551536414479</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1364504072620784</v>
+        <v>0.09054545258414121</v>
       </c>
       <c r="K13" t="n">
-        <v>0.1384992540818584</v>
+        <v>0.2585489011078047</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2370550609841323</v>
+        <v>0.3567891454035114</v>
       </c>
       <c r="M13" t="n">
-        <v>0.2139544200962344</v>
+        <v>0.302011863244585</v>
       </c>
       <c r="N13" t="n">
-        <v>1.001314353338219</v>
+        <v>1.01309446068856</v>
       </c>
       <c r="O13" t="n">
-        <v>0.2230629027064376</v>
+        <v>0.3148691335136502</v>
       </c>
       <c r="P13" t="n">
-        <v>304.1679691074017</v>
+        <v>102.7891559204478</v>
       </c>
       <c r="Q13" t="n">
-        <v>485.7804670127636</v>
+        <v>162.5140713389897</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,272 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9932803629208246</v>
+        <v>0.9860934887633716</v>
       </c>
       <c r="C14" t="n">
-        <v>0.850116337939219</v>
+        <v>0.7330989041386281</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8441022021438412</v>
+        <v>0.8661164607229093</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9557025372124033</v>
+        <v>0.5866848377729491</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9349609080676788</v>
+        <v>0.8502624809272228</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04493424408952988</v>
+        <v>0.09299290467293084</v>
       </c>
       <c r="H14" t="n">
-        <v>1.002272738351247</v>
+        <v>1.784768856991537</v>
       </c>
       <c r="I14" t="n">
-        <v>0.1401787761380797</v>
+        <v>0.438761487956103</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1294207862027876</v>
+        <v>0.09463972749204791</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1347997882175295</v>
+        <v>0.2667006656152525</v>
       </c>
       <c r="L14" t="n">
-        <v>0.233384065601517</v>
+        <v>0.3602197481646933</v>
       </c>
       <c r="M14" t="n">
-        <v>0.2119769895284153</v>
+        <v>0.3049473801706302</v>
       </c>
       <c r="N14" t="n">
-        <v>1.001290170319202</v>
+        <v>1.013350250787163</v>
       </c>
       <c r="O14" t="n">
-        <v>0.2210012888255009</v>
+        <v>0.3179296214725948</v>
       </c>
       <c r="P14" t="n">
-        <v>304.2051102006453</v>
+        <v>102.7504641651577</v>
       </c>
       <c r="Q14" t="n">
-        <v>485.8176081060071</v>
+        <v>162.4753795836995</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_12_8_11</t>
+          <t>model_12_8_13</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9934064187539662</v>
+        <v>0.9858298849901612</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8499176725385978</v>
+        <v>0.7329093435798867</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8444716700194808</v>
+        <v>0.8625542338991615</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9582940327093363</v>
+        <v>0.5691922609714055</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9368676032800506</v>
+        <v>0.8458608891821594</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04409130815287828</v>
+        <v>0.0947556243181721</v>
       </c>
       <c r="H15" t="n">
-        <v>1.003601214799971</v>
+        <v>1.786036449320687</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1398465613451724</v>
+        <v>0.4504355738823045</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1218493957991826</v>
+        <v>0.09864512785701775</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1308479785721775</v>
+        <v>0.2745404338673527</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2292945082498575</v>
+        <v>0.3634541358202663</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2099793041060911</v>
+        <v>0.3078240151745346</v>
       </c>
       <c r="N15" t="n">
-        <v>1.001265967599239</v>
+        <v>1.013603310409445</v>
       </c>
       <c r="O15" t="n">
-        <v>0.2189185577989695</v>
+        <v>0.3209287207840709</v>
       </c>
       <c r="P15" t="n">
-        <v>304.2429852199879</v>
+        <v>102.7129081544455</v>
       </c>
       <c r="Q15" t="n">
-        <v>485.8554831253498</v>
+        <v>162.4378235729874</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_12_8_10</t>
+          <t>model_12_8_14</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9935293975827275</v>
+        <v>0.9855702449765265</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8496793925544586</v>
+        <v>0.7327132880900931</v>
       </c>
       <c r="D16" t="n">
-        <v>0.844776744020626</v>
+        <v>0.85915181501995</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9610728941001387</v>
+        <v>0.5521169393241621</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9388923809768086</v>
+        <v>0.8416332701913999</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04326894815868539</v>
+        <v>0.09649183828487976</v>
       </c>
       <c r="H16" t="n">
-        <v>1.005194594151088</v>
+        <v>1.78734747328369</v>
       </c>
       <c r="I16" t="n">
-        <v>0.1395722476556903</v>
+        <v>0.4615859391785425</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1137305916213749</v>
+        <v>0.1025549863263435</v>
       </c>
       <c r="K16" t="n">
-        <v>0.1266514315940219</v>
+        <v>0.2820703355632346</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2247352402415463</v>
+        <v>0.3665012635215896</v>
       </c>
       <c r="M16" t="n">
-        <v>0.2080118942721434</v>
+        <v>0.3106313543171065</v>
       </c>
       <c r="N16" t="n">
-        <v>1.001242355664116</v>
+        <v>1.013852564822534</v>
       </c>
       <c r="O16" t="n">
-        <v>0.2168673912552909</v>
+        <v>0.3238555741659352</v>
       </c>
       <c r="P16" t="n">
-        <v>304.2806400676603</v>
+        <v>102.6765937031456</v>
       </c>
       <c r="Q16" t="n">
-        <v>485.8931379730221</v>
+        <v>162.4015091216875</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_12_8_9</t>
+          <t>model_12_8_15</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9936449800708925</v>
+        <v>0.985315328186371</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8493930601844492</v>
+        <v>0.7325127054887219</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8449823468620247</v>
+        <v>0.8559047177904371</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9640374542872661</v>
+        <v>0.5354771629538362</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9410264846315927</v>
+        <v>0.837576425084257</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04249604752811756</v>
+        <v>0.09819646803443348</v>
       </c>
       <c r="H17" t="n">
-        <v>1.007109300027781</v>
+        <v>1.788688770062655</v>
       </c>
       <c r="I17" t="n">
-        <v>0.1393873755466924</v>
+        <v>0.4722272862750707</v>
       </c>
       <c r="J17" t="n">
-        <v>0.105069244311187</v>
+        <v>0.1063651148798931</v>
       </c>
       <c r="K17" t="n">
-        <v>0.1222282960281304</v>
+        <v>0.2892960682792088</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2196558164472973</v>
+        <v>0.3693774917848349</v>
       </c>
       <c r="M17" t="n">
-        <v>0.2061456949056117</v>
+        <v>0.3133631567916584</v>
       </c>
       <c r="N17" t="n">
-        <v>1.001220163826389</v>
+        <v>1.014097284941084</v>
       </c>
       <c r="O17" t="n">
-        <v>0.2149217439181607</v>
+        <v>0.3267036751274395</v>
       </c>
       <c r="P17" t="n">
-        <v>304.3166884134297</v>
+        <v>102.6415700626627</v>
       </c>
       <c r="Q17" t="n">
-        <v>485.9291863187916</v>
+        <v>162.3664854812045</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_12_8_8</t>
+          <t>model_12_8_16</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9937475852481787</v>
+        <v>0.9850658993745836</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8490484969042402</v>
+        <v>0.732309422729515</v>
       </c>
       <c r="D18" t="n">
-        <v>0.845048416043279</v>
+        <v>0.8528082263346548</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9671815679160235</v>
+        <v>0.5193006610028453</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9432568472384965</v>
+        <v>0.8336879757151369</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0418099262351511</v>
+        <v>0.09986439964736987</v>
       </c>
       <c r="H18" t="n">
-        <v>1.009413396269105</v>
+        <v>1.790048122809504</v>
       </c>
       <c r="I18" t="n">
-        <v>0.1393279680560412</v>
+        <v>0.4823750699825999</v>
       </c>
       <c r="J18" t="n">
-        <v>0.09588330831986816</v>
+        <v>0.1100691641776911</v>
       </c>
       <c r="K18" t="n">
-        <v>0.1176056545039869</v>
+        <v>0.2962218677807454</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2139944360858541</v>
+        <v>0.3720890284420584</v>
       </c>
       <c r="M18" t="n">
-        <v>0.204474756963179</v>
+        <v>0.3160132903018003</v>
       </c>
       <c r="N18" t="n">
-        <v>1.00120046363235</v>
+        <v>1.0143367366004</v>
       </c>
       <c r="O18" t="n">
-        <v>0.2131796706882001</v>
+        <v>0.3294666303076407</v>
       </c>
       <c r="P18" t="n">
-        <v>304.3492429958049</v>
+        <v>102.6078840334502</v>
       </c>
       <c r="Q18" t="n">
-        <v>485.9617409011668</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>model_12_8_7</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.9938297263271298</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.8486331630556549</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.8449163108682189</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.9704916008093979</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0.9455612051857316</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.04126064846198018</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1.012190735627032</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.1394467531961529</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.0862126176649272</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.1128296505033789</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0.20767438444051</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.2031271731255574</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1.001184692545191</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0.211774717416728</v>
-      </c>
-      <c r="P19" t="n">
-        <v>304.3756921099643</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>485.9881900153262</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>model_12_8_6</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.9938819312708516</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.8481319039616807</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.8445165141323672</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.9739466582852473</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0.9479096601434354</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0.04091155376293151</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1.015542657496524</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.1398062388201089</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.07611821887183338</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1079622511973385</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0.2006254553886468</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.2022660469849834</v>
-      </c>
-      <c r="N20" t="n">
-        <v>1.001174669195996</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0.2108769313535728</v>
-      </c>
-      <c r="P20" t="n">
-        <v>304.3926855354688</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>486.0051834408306</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>model_12_8_5</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.9938918674021158</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.8475261673149898</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.8437559227090364</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.9775137968023829</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0.9502588782966983</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0.04084511080741639</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1.019593221242107</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.1404901405578486</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.06569636077139131</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.1030932700949247</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0.1927573276937601</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.2021017338060621</v>
-      </c>
-      <c r="N21" t="n">
-        <v>1.001172761458794</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0.2107056230224497</v>
-      </c>
-      <c r="P21" t="n">
-        <v>304.3959363026322</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>486.008434207994</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>model_12_8_4</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.9938438366888017</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.8467933703003411</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.8425146152540279</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.9811476175369823</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.9525508365826931</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0.04116629240850849</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1.024493438253283</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0.1416062882023119</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.05507968191899597</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.09834296558764455</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0.1839621647756902</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.2028947816197068</v>
-      </c>
-      <c r="N22" t="n">
-        <v>1.00118198335575</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0.2115324325233565</v>
-      </c>
-      <c r="P22" t="n">
-        <v>304.3802710058297</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>485.9927689111915</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>model_12_8_3</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.99371800297056</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.8459060677415277</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.8406418092487642</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.9847856040186533</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0.9547087044313697</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0.04200774306180189</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1.030426834549721</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.1432902610189398</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0.0444508322959246</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.09387057643888921</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0.174136962251599</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0.2049579055850295</v>
-      </c>
-      <c r="N23" t="n">
-        <v>1.001206143429652</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0.2136833879471384</v>
-      </c>
-      <c r="P23" t="n">
-        <v>304.3398026381528</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>485.9523005435146</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>model_12_8_2</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>0.9934892353779847</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.8448308378084084</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.8379423580908774</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.9883448295050095</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0.9566317844697949</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0.0435375130067303</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1.037616902063468</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0.1457175291700027</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.03405209314181228</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.08988480766193838</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0.1631537968807157</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0.2086564473164688</v>
-      </c>
-      <c r="N24" t="n">
-        <v>1.001250066807427</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0.2175393842571219</v>
-      </c>
-      <c r="P24" t="n">
-        <v>304.2682646890846</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>485.8807625944465</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>model_12_8_1</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>0.993125966113794</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.8435270235004808</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.8341673528350593</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.9917167552735608</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.9581895172542507</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.04596669624907481</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1.046335514344092</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.1491119043565185</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.02420057441994216</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.08665625629067011</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0.1508553360094901</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.2143984520678142</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1.001319814506151</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0.2235258380383205</v>
-      </c>
-      <c r="P25" t="n">
-        <v>304.159676278578</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>485.7721741839399</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>model_12_8_0</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>0.992588686677646</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.8419452569672485</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.8290009318444886</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.9947627574316448</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.9592157225419581</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.04955948631254087</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1.056912794435182</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0.1537574001969439</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.01530128382253598</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.08452934689909049</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.1370937873863137</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.2226196000188233</v>
-      </c>
-      <c r="N26" t="n">
-        <v>1.001422972157892</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0.2320969772777264</v>
-      </c>
-      <c r="P26" t="n">
-        <v>304.0091631744715</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>485.6216610798334</v>
+        <v>162.332799451992</v>
       </c>
     </row>
   </sheetData>
